--- a/data/trans_dic/P1408-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1408-Edad-trans_dic.xlsx
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005626847317602088</v>
+        <v>0.005601280490463183</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
@@ -721,17 +721,17 @@
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="inlineStr"/>
       <c r="J5" s="5" t="n">
-        <v>0.006188094794827949</v>
+        <v>0.006587046359429679</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.003761642130066377</v>
+        <v>0.002980246779622701</v>
       </c>
       <c r="L5" s="5" t="inlineStr"/>
       <c r="M5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.002893150664207327</v>
+        <v>0.002939853915691587</v>
       </c>
     </row>
     <row r="6">
@@ -742,30 +742,30 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02657226718260837</v>
+        <v>0.02617748279515849</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.01415417101905591</v>
+        <v>0.01835502676545623</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.01008827918561237</v>
+        <v>0.01106165388872861</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.06946938289401008</v>
+        <v>0.06314724451378231</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01514766286129549</v>
+        <v>0.01462158583200676</v>
       </c>
       <c r="L6" s="5" t="inlineStr"/>
       <c r="M6" s="5" t="n">
-        <v>0.008741560388483796</v>
+        <v>0.008009092413978389</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03421348737904237</v>
+        <v>0.03185938243664188</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005002899672770579</v>
+        <v>0.004644375778839445</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
@@ -836,28 +836,28 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.009603786119929271</v>
+        <v>0.009007928139826697</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.001649865974531978</v>
+        <v>0.001646231419796572</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.00392449799541569</v>
+        <v>0.003895855358891792</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.008979574284746357</v>
+        <v>0.00870742006018972</v>
       </c>
       <c r="L8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.001677123633358847</v>
+        <v>0.001660578771273391</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.003435727829240242</v>
+        <v>0.003401556458027942</v>
       </c>
     </row>
     <row r="9">
@@ -868,40 +868,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01998308173123672</v>
+        <v>0.0210751504027664</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.008177748203826454</v>
+        <v>0.01072349089212057</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0118472835754832</v>
+        <v>0.01184596308935508</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01761110645066661</v>
+        <v>0.01747173309903989</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03334181297952856</v>
+        <v>0.03235521985101428</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.009400220176633571</v>
+        <v>0.008676453719416799</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01385041468000355</v>
+        <v>0.01537566058651568</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02299665873872992</v>
+        <v>0.02487202868098392</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0219042852430519</v>
+        <v>0.02238528426412809</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.005536345254931193</v>
+        <v>0.005584808792159539</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.009807314269327056</v>
+        <v>0.008605337085764043</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01646628395140759</v>
+        <v>0.0161087021319897</v>
       </c>
     </row>
     <row r="10">
@@ -960,40 +960,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004363373431351046</v>
+        <v>0.0047500201282138</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002711441959135904</v>
+        <v>0.002759214247399953</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001365449990007565</v>
+        <v>0.001376231057119043</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.007783755031423378</v>
+        <v>0.007618970480142389</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.002599006995312182</v>
+        <v>0.002647839452251799</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.001498335279706048</v>
+        <v>0.001486065195557433</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.001818658372232163</v>
+        <v>0.002060491325445174</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.007911674415461494</v>
+        <v>0.007800398003280101</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.003091120376636692</v>
+        <v>0.003388384178989457</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0021006001268196</v>
+        <v>0.002344436260734598</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.001839356171468746</v>
+        <v>0.002033181697862593</v>
       </c>
     </row>
     <row r="12">
@@ -1004,40 +1004,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02024170744242954</v>
+        <v>0.02200481802769335</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01579419928421751</v>
+        <v>0.01567813275161907</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0133673306339998</v>
+        <v>0.01367253485717524</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01593346635199326</v>
+        <v>0.01405314379895626</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02748886531204478</v>
+        <v>0.02707965318293863</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01459907013462168</v>
+        <v>0.01372124601595639</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01417946534280174</v>
+        <v>0.01570752716306405</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01275138144569699</v>
+        <v>0.01312917809637441</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02022501873962103</v>
+        <v>0.02065777735951452</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01235895557892582</v>
+        <v>0.01194546754742967</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01054776476388432</v>
+        <v>0.01063686100463069</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.009959302215367786</v>
+        <v>0.01004738530654084</v>
       </c>
     </row>
     <row r="13">
@@ -1061,7 +1061,7 @@
         <v>0.0113672651408366</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.01931235358203924</v>
+        <v>0.01931235358203923</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.02933675313427599</v>
@@ -1096,40 +1096,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01504971267742671</v>
+        <v>0.01508998820227553</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003915242679882166</v>
+        <v>0.004729440553529213</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004893899236029728</v>
+        <v>0.004902074984864426</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.009859960512530139</v>
+        <v>0.01005905346312851</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01736813914618218</v>
+        <v>0.01693084948307518</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.001751906957079561</v>
+        <v>0.001756394153496349</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.001536791956312808</v>
+        <v>0.001575992938605658</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01073321479423402</v>
+        <v>0.01047157415682987</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01940218665784561</v>
+        <v>0.019847027837984</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.004191091698157424</v>
+        <v>0.004750713795854078</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.004725714547264489</v>
+        <v>0.00476905100726159</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01217267387451615</v>
+        <v>0.01169822305666292</v>
       </c>
     </row>
     <row r="15">
@@ -1140,40 +1140,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04711070053692647</v>
+        <v>0.04827889128374888</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03009958214321017</v>
+        <v>0.03098601777728734</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02234635585252873</v>
+        <v>0.02276003064762923</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03473672806799324</v>
+        <v>0.0372240805810666</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04720057769570523</v>
+        <v>0.04669085926603651</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02027511494913463</v>
+        <v>0.01898024344591764</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01390465956086178</v>
+        <v>0.01544178345038554</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02629837670056636</v>
+        <v>0.02546040445222952</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04150532551636311</v>
+        <v>0.04189544340417967</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01809689575859281</v>
+        <v>0.01969283513281903</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01541002896664148</v>
+        <v>0.01564537875528021</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02583788860462282</v>
+        <v>0.02577599412658601</v>
       </c>
     </row>
     <row r="16">
@@ -1232,40 +1232,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04414278344193853</v>
+        <v>0.04328672041693307</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01793472577648407</v>
+        <v>0.01929278585883528</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02418509354923224</v>
+        <v>0.0255605283955129</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02120880395856481</v>
+        <v>0.02128770697692314</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01061226894436353</v>
+        <v>0.01047677718195513</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.009295995137250986</v>
+        <v>0.009205946963795352</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.004592156562688358</v>
+        <v>0.006537672164485311</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02025746942433096</v>
+        <v>0.02067583799951773</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03019852156564071</v>
+        <v>0.03012741108267959</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01821905371584295</v>
+        <v>0.01795590245704774</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01759948974010481</v>
+        <v>0.01709364292401601</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02363312135679088</v>
+        <v>0.02356441407033414</v>
       </c>
     </row>
     <row r="18">
@@ -1276,40 +1276,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09394231319272565</v>
+        <v>0.09009460146142877</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06251582843889886</v>
+        <v>0.05737993019434483</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06416389086266978</v>
+        <v>0.06524196799708164</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04958334439387792</v>
+        <v>0.04800731918625491</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0389362843558325</v>
+        <v>0.04037273238992367</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03712035206192269</v>
+        <v>0.03520779696927177</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02938104470087674</v>
+        <v>0.02978556337738084</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0431864795317322</v>
+        <v>0.04255085333756407</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05795940230986013</v>
+        <v>0.05918180739160458</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04362776006114315</v>
+        <v>0.04119305036311451</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0403029480338418</v>
+        <v>0.04094762695317733</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04186215101892423</v>
+        <v>0.04071765177071045</v>
       </c>
     </row>
     <row r="19">
@@ -1345,7 +1345,7 @@
         <v>0.03424194821975903</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.04226613663321384</v>
+        <v>0.04226613663321383</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.07914654677896697</v>
@@ -1357,7 +1357,7 @@
         <v>0.03734516693524584</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.0522780856306447</v>
+        <v>0.05227808563064471</v>
       </c>
     </row>
     <row r="20">
@@ -1368,40 +1368,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.07103707656560709</v>
+        <v>0.07389423381516387</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03312634647226634</v>
+        <v>0.03350994575562095</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02289975977769123</v>
+        <v>0.02314476755754582</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.04374016233928937</v>
+        <v>0.04470566546074766</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.0375090584966626</v>
+        <v>0.03765198116255289</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.008056987011099002</v>
+        <v>0.005793297805239987</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01826201776650579</v>
+        <v>0.01813907730903042</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02897992940950399</v>
+        <v>0.02926566921415797</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.06046761286378464</v>
+        <v>0.06135172195045618</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02232011496037375</v>
+        <v>0.02157038749183521</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02475878431035882</v>
+        <v>0.02480264509864543</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.04236245209812037</v>
+        <v>0.04134338606244468</v>
       </c>
     </row>
     <row r="21">
@@ -1412,40 +1412,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1450166568435488</v>
+        <v>0.1416923814981456</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.09017579580531011</v>
+        <v>0.09387311839645197</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06477558334141743</v>
+        <v>0.0675223739734104</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.08443048702015871</v>
+        <v>0.08477035815450501</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.08592738043024088</v>
+        <v>0.08542589080369013</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.0374161199946497</v>
+        <v>0.03439200051788941</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.05748697528016946</v>
+        <v>0.05645690564931405</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0559688685481935</v>
+        <v>0.05816855212780424</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1013306419538685</v>
+        <v>0.1024799007820339</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.05330717773545946</v>
+        <v>0.05253757309727859</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.05509634981637512</v>
+        <v>0.05285353718568992</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.06665988123655633</v>
+        <v>0.06499537673936208</v>
       </c>
     </row>
     <row r="22">
@@ -1469,7 +1469,7 @@
         <v>0.07134904188298634</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.08251356590528656</v>
+        <v>0.08251356590528658</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.07262934502541814</v>
@@ -1504,40 +1504,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1655732068331346</v>
+        <v>0.1616062243574865</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07723414524323301</v>
+        <v>0.07757952390953186</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04467204707317766</v>
+        <v>0.04727724896398649</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06181929685766484</v>
+        <v>0.05722662040114841</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04562201985054656</v>
+        <v>0.04850538673884851</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02566864923089854</v>
+        <v>0.02570510623461689</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02174130998756098</v>
+        <v>0.0205177840674444</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04968976321306458</v>
+        <v>0.04877829280506441</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1005652925450288</v>
+        <v>0.09974057539252819</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.04862062421219612</v>
+        <v>0.05037918872174648</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.03563659877088378</v>
+        <v>0.03556956734083653</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.05901708309725549</v>
+        <v>0.05806152212288108</v>
       </c>
     </row>
     <row r="24">
@@ -1548,40 +1548,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.272214551909835</v>
+        <v>0.2751321099848956</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1567153333732824</v>
+        <v>0.1603838082473487</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1069804040265462</v>
+        <v>0.1061275329202689</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1119153074176359</v>
+        <v>0.1103900627029441</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1058730011890157</v>
+        <v>0.1074198361095205</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.06648680988015017</v>
+        <v>0.06552335990080103</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.06679328270852201</v>
+        <v>0.06668103238658701</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.08421723362557369</v>
+        <v>0.08495559836582778</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1597255304660891</v>
+        <v>0.1581143175692659</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.0923995342215316</v>
+        <v>0.09096270810801743</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.0712614034567926</v>
+        <v>0.07038688080823344</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.08699130742916233</v>
+        <v>0.08653601896684122</v>
       </c>
     </row>
     <row r="25">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03529017512606692</v>
+        <v>0.03543655544429158</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01618282265822354</v>
+        <v>0.01692857301287009</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01556045674316667</v>
+        <v>0.01528687877289613</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02071917958777696</v>
+        <v>0.02072756627278089</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.0220932539261662</v>
+        <v>0.02187867131907256</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.008822198592977405</v>
+        <v>0.008641928969829404</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.009109566476428365</v>
+        <v>0.009065888822046553</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.02145847028966737</v>
+        <v>0.02144272346154356</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02999706534123199</v>
+        <v>0.03018530992542486</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.01380664161697903</v>
+        <v>0.01370362052574704</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01362926335875835</v>
+        <v>0.01310288322899035</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.02243502385861763</v>
+        <v>0.02254725650629072</v>
       </c>
     </row>
     <row r="27">
@@ -1684,40 +1684,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04811509746835873</v>
+        <v>0.04873670325254809</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02673541966862198</v>
+        <v>0.02733105396308802</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02526755917797871</v>
+        <v>0.02492546581309908</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03057654291755827</v>
+        <v>0.0307157390589978</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03340211741436706</v>
+        <v>0.03325608979554518</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.01626365166166996</v>
+        <v>0.01613329100467435</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.01695149075146733</v>
+        <v>0.01734723536674776</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.03044542360832894</v>
+        <v>0.03130584920016689</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.03880220591986967</v>
+        <v>0.03867985863282864</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.0201925782427997</v>
+        <v>0.0202664452724272</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.01959394714112176</v>
+        <v>0.01934290980531278</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.02903154243972755</v>
+        <v>0.02933774895067725</v>
       </c>
     </row>
     <row r="28">
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2780</v>
+        <v>2767</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
@@ -2004,17 +2004,17 @@
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>2243</v>
+        <v>2388</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3617</v>
+        <v>2866</v>
       </c>
       <c r="L6" s="6" t="inlineStr"/>
       <c r="M6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2229</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="7">
@@ -2025,30 +2025,30 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13128</v>
+        <v>12933</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>5937</v>
+        <v>7699</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>4716</v>
+        <v>5171</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>25183</v>
+        <v>22892</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>14565</v>
+        <v>14059</v>
       </c>
       <c r="L7" s="6" t="inlineStr"/>
       <c r="M7" s="6" t="n">
-        <v>7126</v>
+        <v>6529</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>26355</v>
+        <v>24541</v>
       </c>
     </row>
     <row r="8">
@@ -2151,7 +2151,7 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3680</v>
+        <v>3416</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
@@ -2163,28 +2163,28 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>6007</v>
+        <v>5634</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1966</v>
+        <v>1952</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>12221</v>
+        <v>11851</v>
       </c>
       <c r="L10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1935</v>
+        <v>1916</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>3360</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="11">
@@ -2195,40 +2195,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14697</v>
+        <v>15501</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5619</v>
+        <v>7368</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6996</v>
+        <v>6995</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>8399</v>
+        <v>8332</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>20855</v>
+        <v>20238</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>5737</v>
+        <v>5295</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>7805</v>
+        <v>8665</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>11523</v>
+        <v>12463</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>29811</v>
+        <v>30466</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>7183</v>
+        <v>7245</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>11318</v>
+        <v>9931</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>16104</v>
+        <v>15754</v>
       </c>
     </row>
     <row r="12">
@@ -2331,40 +2331,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2787</v>
+        <v>3034</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1849</v>
+        <v>1881</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5369</v>
+        <v>5255</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1844</v>
+        <v>1879</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1130</v>
+        <v>1281</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>10510</v>
+        <v>10362</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>4301</v>
+        <v>4715</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2795</v>
+        <v>3119</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>2285</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="15">
@@ -2375,40 +2375,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12928</v>
+        <v>14054</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10769</v>
+        <v>10690</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8944</v>
+        <v>9148</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9892</v>
+        <v>8725</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>18960</v>
+        <v>18678</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>10359</v>
+        <v>9736</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9378</v>
+        <v>10389</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7925</v>
+        <v>8160</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>26867</v>
+        <v>27442</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>17197</v>
+        <v>16621</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>14034</v>
+        <v>14152</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>12373</v>
+        <v>12482</v>
       </c>
     </row>
     <row r="16">
@@ -2511,40 +2511,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7813</v>
+        <v>7834</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2406</v>
+        <v>2907</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3162</v>
+        <v>3167</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6897</v>
+        <v>7036</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8956</v>
+        <v>8730</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>997</v>
+        <v>1023</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>7897</v>
+        <v>7705</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>20077</v>
+        <v>20537</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>5150</v>
+        <v>5838</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>6120</v>
+        <v>6177</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>17472</v>
+        <v>16791</v>
       </c>
     </row>
     <row r="19">
@@ -2555,40 +2555,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>24457</v>
+        <v>25064</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>18500</v>
+        <v>19045</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>14437</v>
+        <v>14704</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>24299</v>
+        <v>26039</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>24339</v>
+        <v>24076</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>12454</v>
+        <v>11659</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>9025</v>
+        <v>10023</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>19350</v>
+        <v>18733</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>42949</v>
+        <v>43353</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>22239</v>
+        <v>24200</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>19958</v>
+        <v>20263</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>37085</v>
+        <v>36996</v>
       </c>
     </row>
     <row r="20">
@@ -2691,40 +2691,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>17070</v>
+        <v>16739</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7702</v>
+        <v>8285</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11558</v>
+        <v>12216</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>12903</v>
+        <v>12951</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4287</v>
+        <v>4232</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>4163</v>
+        <v>4122</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2282</v>
+        <v>3248</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>12263</v>
+        <v>12516</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>23878</v>
+        <v>23822</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>15982</v>
+        <v>15751</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>17155</v>
+        <v>16662</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>28684</v>
+        <v>28601</v>
       </c>
     </row>
     <row r="23">
@@ -2735,40 +2735,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>36328</v>
+        <v>34840</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>26846</v>
+        <v>24641</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>30665</v>
+        <v>31180</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>30164</v>
+        <v>29206</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>15730</v>
+        <v>16310</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>16622</v>
+        <v>15766</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>14598</v>
+        <v>14799</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>26144</v>
+        <v>25759</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>45828</v>
+        <v>46795</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>38272</v>
+        <v>36136</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>39286</v>
+        <v>39914</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>50809</v>
+        <v>49420</v>
       </c>
     </row>
     <row r="24">
@@ -2871,40 +2871,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>20784</v>
+        <v>21620</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>10262</v>
+        <v>10381</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>7656</v>
+        <v>7738</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>17768</v>
+        <v>18160</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>12863</v>
+        <v>12912</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2852</v>
+        <v>2051</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>6899</v>
+        <v>6852</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>12694</v>
+        <v>12819</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>38428</v>
+        <v>38990</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>14816</v>
+        <v>14318</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>17631</v>
+        <v>17662</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>35764</v>
+        <v>34903</v>
       </c>
     </row>
     <row r="27">
@@ -2915,40 +2915,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>42429</v>
+        <v>41457</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>27935</v>
+        <v>29081</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>21656</v>
+        <v>22575</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>34297</v>
+        <v>34435</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>29467</v>
+        <v>29295</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>13245</v>
+        <v>12175</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>21716</v>
+        <v>21327</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>24515</v>
+        <v>25479</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>64397</v>
+        <v>65128</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>35384</v>
+        <v>34873</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>39234</v>
+        <v>37637</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>56276</v>
+        <v>54871</v>
       </c>
     </row>
     <row r="28">
@@ -3051,40 +3051,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>34751</v>
+        <v>33918</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>19297</v>
+        <v>19383</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>11481</v>
+        <v>12150</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>19176</v>
+        <v>17752</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>15234</v>
+        <v>16196</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>9954</v>
+        <v>9968</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>8700</v>
+        <v>8211</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>23038</v>
+        <v>22616</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>54687</v>
+        <v>54238</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>31003</v>
+        <v>32124</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>23419</v>
+        <v>23375</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>45670</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="31">
@@ -3095,40 +3095,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>57133</v>
+        <v>57746</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>39155</v>
+        <v>40072</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>27494</v>
+        <v>27275</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>34716</v>
+        <v>34243</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>35352</v>
+        <v>35868</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>25783</v>
+        <v>25410</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>26729</v>
+        <v>26684</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>39046</v>
+        <v>39389</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>86857</v>
+        <v>85981</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>58918</v>
+        <v>58002</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>46831</v>
+        <v>46256</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>67317</v>
+        <v>66965</v>
       </c>
     </row>
     <row r="32">
@@ -3231,40 +3231,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>115630</v>
+        <v>116109</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>55455</v>
+        <v>58010</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>52818</v>
+        <v>51889</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>73135</v>
+        <v>73164</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>74657</v>
+        <v>73932</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>31353</v>
+        <v>30713</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>32289</v>
+        <v>32134</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>79995</v>
+        <v>79936</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>199653</v>
+        <v>200906</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>96380</v>
+        <v>95661</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>94572</v>
+        <v>90919</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>162827</v>
+        <v>163641</v>
       </c>
     </row>
     <row r="35">
@@ -3275,40 +3275,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>157651</v>
+        <v>159688</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>91616</v>
+        <v>93657</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>85767</v>
+        <v>84606</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>107929</v>
+        <v>108421</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>112872</v>
+        <v>112379</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>57800</v>
+        <v>57336</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>60085</v>
+        <v>61488</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>113497</v>
+        <v>116705</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>258257</v>
+        <v>257443</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>140958</v>
+        <v>141474</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>135960</v>
+        <v>134218</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>210702</v>
+        <v>212925</v>
       </c>
     </row>
     <row r="36">
